--- a/excel/src/main/resources/demo/demo.xlsx
+++ b/excel/src/main/resources/demo/demo.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>字符串标题</t>
   </si>
@@ -26,18 +27,45 @@
     <t>数字标题</t>
   </si>
   <si>
-    <t>字符串0</t>
-  </si>
-  <si>
     <t>字符串1</t>
   </si>
   <si>
+    <t>字符串3</t>
+  </si>
+  <si>
+    <t>表2字符串0</t>
+  </si>
+  <si>
+    <t>表2字符串1</t>
+  </si>
+  <si>
+    <t>表2字符串2</t>
+  </si>
+  <si>
+    <t>表2字符串3</t>
+  </si>
+  <si>
+    <t>表2字符串4</t>
+  </si>
+  <si>
+    <t>表2字符串5</t>
+  </si>
+  <si>
+    <t>表2字符串6</t>
+  </si>
+  <si>
+    <t>表2字符串7</t>
+  </si>
+  <si>
+    <t>表2字符串8</t>
+  </si>
+  <si>
+    <t>表2字符串9</t>
+  </si>
+  <si>
     <t>字符串2</t>
   </si>
   <si>
-    <t>字符串3</t>
-  </si>
-  <si>
     <t>字符串4</t>
   </si>
   <si>
@@ -54,36 +82,6 @@
   </si>
   <si>
     <t>字符串9</t>
-  </si>
-  <si>
-    <t>表2字符串0</t>
-  </si>
-  <si>
-    <t>表2字符串1</t>
-  </si>
-  <si>
-    <t>表2字符串2</t>
-  </si>
-  <si>
-    <t>表2字符串3</t>
-  </si>
-  <si>
-    <t>表2字符串4</t>
-  </si>
-  <si>
-    <t>表2字符串5</t>
-  </si>
-  <si>
-    <t>表2字符串6</t>
-  </si>
-  <si>
-    <t>表2字符串7</t>
-  </si>
-  <si>
-    <t>表2字符串8</t>
-  </si>
-  <si>
-    <t>表2字符串9</t>
   </si>
 </sst>
 </file>
@@ -91,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -105,9 +103,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,41 +216,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,20 +234,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -198,52 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,19 +256,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,19 +388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,43 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,91 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +447,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,29 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +521,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -534,21 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,20 +1055,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="12" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,115 +1079,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="12" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>43831.0423726852</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="1" ht="12" customHeight="1" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
+        <v>43831.1271180556</v>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>43832.0423726852</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43833.0423726852</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43834.0423726852</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43835.0423726852</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43836.0423726852</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43837.0423726852</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43838.0423726852</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43839.0423726852</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43840.0423726852</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,10 +1113,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1222,7 +1134,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>43831.0423726852</v>
@@ -1233,7 +1145,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>43832.0423726852</v>
@@ -1244,7 +1156,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>43833.0423726852</v>
@@ -1255,7 +1167,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>43834.0423726852</v>
@@ -1266,7 +1178,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>43835.0423726852</v>
@@ -1277,7 +1189,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>43836.0423726852</v>
@@ -1288,7 +1200,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>43837.0423726852</v>
@@ -1299,7 +1211,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>43838.0423726852</v>
@@ -1310,7 +1222,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>43839.0423726852</v>
@@ -1321,12 +1233,131 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>43840.0423726852</v>
       </c>
       <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2">
+        <v>43832.0423726852</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43833.0423726852</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43834.0423726852</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43835.0423726852</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43836.0423726852</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43837.0423726852</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43838.0423726852</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43839.0423726852</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43840.0423726852</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
     </row>

--- a/excel/src/main/resources/demo/demo.xlsx
+++ b/excel/src/main/resources/demo/demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>字符串标题</t>
   </si>
@@ -24,13 +24,16 @@
     <t>日期标题</t>
   </si>
   <si>
+    <t>数字标题1</t>
+  </si>
+  <si>
+    <t>字符串1</t>
+  </si>
+  <si>
+    <t>字符串3</t>
+  </si>
+  <si>
     <t>数字标题</t>
-  </si>
-  <si>
-    <t>字符串1</t>
-  </si>
-  <si>
-    <t>字符串3</t>
   </si>
   <si>
     <t>表2字符串0</t>
@@ -89,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,6 +106,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -117,84 +128,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,9 +151,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +212,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -232,16 +243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +259,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,175 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +455,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -459,16 +473,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -504,16 +518,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -527,26 +550,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,145 +558,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1061,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1090,9 +1093,7 @@
     </row>
     <row r="3" customFormat="1" ht="12" customHeight="1" spans="1:2">
       <c r="A3" s="1"/>
-      <c r="B3" s="2">
-        <v>43831.1271180556</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
@@ -1129,12 +1130,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>43831.0423726852</v>
@@ -1145,7 +1146,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>43832.0423726852</v>
@@ -1156,7 +1157,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>43833.0423726852</v>
@@ -1167,7 +1168,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>43834.0423726852</v>
@@ -1178,7 +1179,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>43835.0423726852</v>
@@ -1189,7 +1190,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>43836.0423726852</v>
@@ -1200,7 +1201,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>43837.0423726852</v>
@@ -1211,7 +1212,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>43838.0423726852</v>
@@ -1222,7 +1223,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>43839.0423726852</v>
@@ -1233,7 +1234,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>43840.0423726852</v>
@@ -1275,7 +1276,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>43833.0423726852</v>
@@ -1297,7 +1298,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>43835.0423726852</v>
@@ -1308,7 +1309,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>43836.0423726852</v>
@@ -1319,7 +1320,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>43837.0423726852</v>
@@ -1330,7 +1331,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>43838.0423726852</v>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>43839.0423726852</v>
@@ -1352,7 +1353,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>43840.0423726852</v>

--- a/excel/src/main/resources/demo/demo.xlsx
+++ b/excel/src/main/resources/demo/demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>字符串标题</t>
   </si>
@@ -24,46 +24,52 @@
     <t>日期标题</t>
   </si>
   <si>
-    <t>数字标题1</t>
+    <t>数字标题</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>好奇心</t>
+  </si>
+  <si>
+    <t>字符串3</t>
+  </si>
+  <si>
+    <t>潘达</t>
+  </si>
+  <si>
+    <t>表2字符串0</t>
+  </si>
+  <si>
+    <t>表2字符串1</t>
+  </si>
+  <si>
+    <t>表2字符串2</t>
+  </si>
+  <si>
+    <t>表2字符串3</t>
+  </si>
+  <si>
+    <t>表2字符串4</t>
+  </si>
+  <si>
+    <t>表2字符串5</t>
+  </si>
+  <si>
+    <t>表2字符串6</t>
+  </si>
+  <si>
+    <t>表2字符串7</t>
+  </si>
+  <si>
+    <t>表2字符串8</t>
+  </si>
+  <si>
+    <t>表2字符串9</t>
   </si>
   <si>
     <t>字符串1</t>
-  </si>
-  <si>
-    <t>字符串3</t>
-  </si>
-  <si>
-    <t>数字标题</t>
-  </si>
-  <si>
-    <t>表2字符串0</t>
-  </si>
-  <si>
-    <t>表2字符串1</t>
-  </si>
-  <si>
-    <t>表2字符串2</t>
-  </si>
-  <si>
-    <t>表2字符串3</t>
-  </si>
-  <si>
-    <t>表2字符串4</t>
-  </si>
-  <si>
-    <t>表2字符串5</t>
-  </si>
-  <si>
-    <t>表2字符串6</t>
-  </si>
-  <si>
-    <t>表2字符串7</t>
-  </si>
-  <si>
-    <t>表2字符串8</t>
-  </si>
-  <si>
-    <t>表2字符串9</t>
   </si>
   <si>
     <t>字符串2</t>
@@ -92,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,6 +112,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -116,28 +160,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,52 +174,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,30 +204,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -243,8 +211,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,15 +470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -484,6 +481,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,7 +528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,8 +551,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,137 +576,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +714,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,20 +1067,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" ht="12" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,25 +1090,75 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="12" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44907</v>
+      </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="12" customHeight="1" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+        <v>1.111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="12" customHeight="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44907</v>
+      </c>
+      <c r="C3">
+        <v>1.111</v>
+      </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3">
+        <v>44910</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="12" customHeight="1" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1130,12 +1189,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>43831.0423726852</v>
@@ -1146,7 +1205,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>43832.0423726852</v>
@@ -1157,7 +1216,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>43833.0423726852</v>
@@ -1168,7 +1227,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>43834.0423726852</v>
@@ -1179,7 +1238,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>43835.0423726852</v>
@@ -1190,7 +1249,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>43836.0423726852</v>
@@ -1201,7 +1260,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>43837.0423726852</v>
@@ -1212,7 +1271,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>43838.0423726852</v>
@@ -1223,7 +1282,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>43839.0423726852</v>
@@ -1234,7 +1293,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>43840.0423726852</v>
@@ -1265,7 +1324,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2">
         <v>43832.0423726852</v>
@@ -1276,7 +1335,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>43833.0423726852</v>
@@ -1287,7 +1346,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>43834.0423726852</v>
@@ -1298,7 +1357,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>43835.0423726852</v>
@@ -1309,7 +1368,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>43836.0423726852</v>
@@ -1320,7 +1379,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>43837.0423726852</v>
@@ -1331,7 +1390,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>43838.0423726852</v>
@@ -1342,7 +1401,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>43839.0423726852</v>
@@ -1353,7 +1412,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>43840.0423726852</v>
